--- a/excels/override_abilities.xlsx
+++ b/excels/override_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>名字</t>
   </si>
@@ -125,30 +125,6 @@
   </si>
   <si>
     <t>SpellImmunityType</t>
-  </si>
-  <si>
-    <t>antimage_mana_break</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>damage 0.1 0.2 0.3 0.4</t>
-  </si>
-  <si>
-    <t>1 1 2 3 4</t>
-  </si>
-  <si>
-    <t>1000 2000 30000 40000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 2 3 4 </t>
-  </si>
-  <si>
-    <t>1 1 1 1</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
   </si>
 </sst>
 </file>
@@ -198,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -208,9 +184,6 @@
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -526,36 +499,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="53.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="50.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="53.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -684,54 +657,6 @@
       </c>
       <c r="X2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
